--- a/results/PCI-Outbreak_v0.1.0_2020-07-09.xlsx
+++ b/results/PCI-Outbreak_v0.1.0_2020-07-09.xlsx
@@ -1731,6 +1731,510 @@
         <v>0.69446516007533</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.691150477323836</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.749834665457363</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.740101918541116</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.673262004386364</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>44026</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.709073935062636</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.672091426247228</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.703076697580215</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.662027573911487</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.552484794470793</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.679105939963991</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.740690333527513</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.695784054897994</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.709039548022599</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.703610343900821</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.703663958813894</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.730821158319912</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.756914913060961</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.676236923022429</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.61715158169217</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.605839500887566</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.710039654589625</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.707875408128016</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.706420864601834</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>44045</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.704788678835289</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>44046</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.665881890816702</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>44047</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.716048699740972</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>44048</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.628678126885428</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>44049</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.725564292698827</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>44050</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.72798697923324</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>44051</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.659954015971945</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>44052</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.560796280477753</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>44053</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.682123570508506</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>44054</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.62735539030266</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>44055</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.660660171253392</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>44056</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.68769227910062</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>44057</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.635008401621019</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>44058</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.616470428852726</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>44059</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.740133365927857</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>44060</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.696402335590417</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>44061</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.740238706136685</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>44062</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.67089678863029</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>44063</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.723626420660319</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>44064</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.737865821520708</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>44065</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.617668207498716</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.703520502249316</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.731665469316801</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.679070473071093</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>44069</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.648828884466708</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>44070</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.574554069119287</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>44071</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.784280322228475</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>44072</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.929595827900913</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>44073</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.704621949753576</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.680320338307517</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.721732027027758</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>44076</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.71068386415844</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>44077</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.676447206571677</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>44078</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.726232709295262</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>44079</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.727504097394426</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.625196081456737</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>44081</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.748234402647141</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>44082</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.714552772866274</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>44083</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.722560385710641</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>44084</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.718145430390107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
